--- a/user-details/src/main/resources/salary.xlsx
+++ b/user-details/src/main/resources/salary.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nagarro-my.sharepoint.com/personal/satyam_kumar01_nagarro_com/Documents/Desktop/files/lookup/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_F25DC773A252ABDACC104819999E65EC5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B24EFE43-5F1E-45EA-ABDC-7F118035BC21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7B7CB1D0-0E8D-4C8C-8450-F35E91B3617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="amount" sheetId="1" r:id="rId1"/>
     <sheet name="address" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,10 +131,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,7 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
@@ -573,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D40576-6734-4DF8-8E03-A61CAB25E6A6}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
